--- a/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
+++ b/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckg05\Desktop\syllabus2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="292">
   <si>
     <t>番号</t>
   </si>
@@ -444,9 +444,6 @@
     <t>Excel MOS</t>
   </si>
   <si>
-    <t>チェック中</t>
-  </si>
-  <si>
     <t>開発技術</t>
   </si>
   <si>
@@ -737,17 +734,6 @@
   </si>
   <si>
     <t>着手</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>チェック中</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>チェック中</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1162,6 +1148,26 @@
   </si>
   <si>
     <t>ー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>天神校分をコピー済</t>
+    <rPh sb="0" eb="3">
+      <t>テンジンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2119,10 +2125,10 @@
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
+      <selection pane="bottomRight" activeCell="V73" sqref="V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2204,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -2213,10 +2219,10 @@
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X1" t="s">
         <v>15</v>
@@ -2330,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Y2" t="s">
         <v>35</v>
@@ -2429,13 +2435,13 @@
         <v>一般生</v>
       </c>
       <c r="V3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="W3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y3" t="s">
         <v>42</v>
@@ -2522,13 +2528,13 @@
         <v>留学生</v>
       </c>
       <c r="W4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X4" t="s">
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB4" t="s">
         <v>32</v>
@@ -2609,7 +2615,7 @@
         <v>50</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y5" t="s">
         <v>42</v>
@@ -2714,7 +2720,7 @@
         <v>50</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y6" t="s">
         <v>55</v>
@@ -2819,10 +2825,10 @@
         <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="Y7" t="s">
         <v>42</v>
@@ -2921,10 +2927,10 @@
         <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X8" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="Y8" t="s">
         <v>55</v>
@@ -3020,7 +3026,7 @@
         <v>50</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Y9" t="s">
         <v>65</v>
@@ -3110,7 +3116,7 @@
         <v>44</v>
       </c>
       <c r="X10" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="Y10" t="s">
         <v>65</v>
@@ -3200,7 +3206,7 @@
         <v>44</v>
       </c>
       <c r="X11" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="Y11" t="s">
         <v>65</v>
@@ -3287,16 +3293,16 @@
         <v>留学生</v>
       </c>
       <c r="V12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X12" t="s">
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
@@ -3365,7 +3371,7 @@
         <v>留学生</v>
       </c>
       <c r="V13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X13" t="s">
         <v>34</v>
@@ -3437,16 +3443,16 @@
         <v>留学生</v>
       </c>
       <c r="V14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X14" t="s">
         <v>34</v>
       </c>
       <c r="Y14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
@@ -3515,7 +3521,7 @@
         <v>留学生</v>
       </c>
       <c r="V15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X15" t="s">
         <v>34</v>
@@ -3587,16 +3593,16 @@
         <v>留学生</v>
       </c>
       <c r="V16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X16" t="s">
         <v>34</v>
       </c>
       <c r="Y16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3665,7 +3671,7 @@
         <v>留学生</v>
       </c>
       <c r="V17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X17" t="s">
         <v>34</v>
@@ -3737,16 +3743,16 @@
         <v>留学生</v>
       </c>
       <c r="V18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X18" t="s">
         <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3815,7 +3821,7 @@
         <v>留学生</v>
       </c>
       <c r="V19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X19" t="s">
         <v>34</v>
@@ -3887,16 +3893,16 @@
         <v>留学生</v>
       </c>
       <c r="V20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X20" t="s">
         <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3965,7 +3971,7 @@
         <v>留学生</v>
       </c>
       <c r="V21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X21" t="s">
         <v>34</v>
@@ -4037,16 +4043,16 @@
         <v>留学生</v>
       </c>
       <c r="V22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X22" t="s">
         <v>34</v>
       </c>
       <c r="Y22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4115,7 +4121,7 @@
         <v>留学生</v>
       </c>
       <c r="V23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X23" t="s">
         <v>34</v>
@@ -4187,16 +4193,16 @@
         <v>留学生</v>
       </c>
       <c r="V24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
         <v>34</v>
       </c>
       <c r="Y24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4265,7 +4271,7 @@
         <v>留学生</v>
       </c>
       <c r="V25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
         <v>34</v>
@@ -4337,16 +4343,16 @@
         <v>留学生</v>
       </c>
       <c r="V26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
         <v>34</v>
       </c>
       <c r="Y26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4415,7 +4421,7 @@
         <v>留学生</v>
       </c>
       <c r="V27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
         <v>34</v>
@@ -4487,16 +4493,16 @@
         <v>留学生</v>
       </c>
       <c r="V28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
         <v>34</v>
       </c>
       <c r="Y28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4565,13 +4571,13 @@
         <v>一般生</v>
       </c>
       <c r="V29" t="s">
+        <v>235</v>
+      </c>
+      <c r="W29" t="s">
         <v>238</v>
       </c>
-      <c r="W29" t="s">
-        <v>241</v>
-      </c>
       <c r="X29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
         <v>35</v>
@@ -4655,10 +4661,10 @@
         <v>留学生</v>
       </c>
       <c r="V30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="X30" t="s">
         <v>34</v>
@@ -4742,7 +4748,7 @@
         <v>46</v>
       </c>
       <c r="X31" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
         <v>35</v>
@@ -4832,13 +4838,13 @@
         <v>留学生</v>
       </c>
       <c r="W32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.4">
@@ -4907,16 +4913,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z33">
         <v>16</v>
@@ -4994,16 +5000,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X34" t="s">
         <v>34</v>
       </c>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z34">
         <v>16</v>
@@ -5084,7 +5090,7 @@
         <v>46</v>
       </c>
       <c r="X35" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s">
         <v>95</v>
@@ -5183,7 +5189,7 @@
         <v>46</v>
       </c>
       <c r="X36" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s">
         <v>42</v>
@@ -5276,7 +5282,7 @@
         <v>46</v>
       </c>
       <c r="X37" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="Y37" t="s">
         <v>42</v>
@@ -5363,13 +5369,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="V38" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="W38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="X38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y38" t="s">
         <v>35</v>
@@ -5594,16 +5600,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="W41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X41" t="s">
         <v>34</v>
       </c>
       <c r="Y41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5672,10 +5678,10 @@
         <v>一般生</v>
       </c>
       <c r="V42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="W42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="X42" t="s">
         <v>34</v>
@@ -5750,13 +5756,13 @@
         <v>留学生</v>
       </c>
       <c r="W43" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="X43" t="s">
         <v>34</v>
       </c>
       <c r="Y43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5839,7 +5845,7 @@
         <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
         <v>66</v>
@@ -5894,10 +5900,10 @@
         <v>一般生</v>
       </c>
       <c r="V45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X45" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5911,7 +5917,7 @@
         <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
         <v>66</v>
@@ -5966,10 +5972,10 @@
         <v>一般生</v>
       </c>
       <c r="V46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5983,7 +5989,7 @@
         <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -6038,10 +6044,10 @@
         <v>一般生</v>
       </c>
       <c r="V47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X47" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -6055,7 +6061,7 @@
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
         <v>66</v>
@@ -6110,13 +6116,13 @@
         <v>一般生</v>
       </c>
       <c r="V48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6185,7 +6191,7 @@
         <v>53</v>
       </c>
       <c r="W49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="X49" t="s">
         <v>34</v>
@@ -6272,7 +6278,7 @@
         <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Y50" t="s">
         <v>95</v>
@@ -6365,7 +6371,7 @@
         <v>53</v>
       </c>
       <c r="X51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Y51" t="s">
         <v>97</v>
@@ -6458,7 +6464,7 @@
         <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Y52" t="s">
         <v>115</v>
@@ -6548,7 +6554,7 @@
         <v>58</v>
       </c>
       <c r="X53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -6638,7 +6644,7 @@
         <v>58</v>
       </c>
       <c r="X54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y54" t="s">
         <v>55</v>
@@ -6728,7 +6734,7 @@
         <v>58</v>
       </c>
       <c r="X55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Y55" t="s">
         <v>65</v>
@@ -6884,10 +6890,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X57" t="s">
         <v>34</v>
@@ -6968,7 +6974,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X58" t="s">
         <v>34</v>
@@ -7040,10 +7046,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="X59" t="s">
         <v>34</v>
@@ -7118,7 +7124,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V60" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X60" t="s">
         <v>34</v>
@@ -7190,16 +7196,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="X61" t="s">
         <v>34</v>
       </c>
       <c r="Y61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.4">
@@ -7268,7 +7274,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="X62" t="s">
         <v>34</v>
@@ -7340,13 +7346,13 @@
         <v>一般生</v>
       </c>
       <c r="W63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="X63" t="s">
         <v>34</v>
       </c>
       <c r="Y63" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -7484,13 +7490,13 @@
         <v>一般生</v>
       </c>
       <c r="W65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X65" t="s">
         <v>34</v>
       </c>
       <c r="Y65" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
@@ -7628,13 +7634,13 @@
         <v>一般生</v>
       </c>
       <c r="W67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X67" t="s">
         <v>34</v>
       </c>
       <c r="Y67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
@@ -7778,7 +7784,7 @@
         <v>46</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="Y69" t="s">
         <v>55</v>
@@ -7874,7 +7880,7 @@
         <v>46</v>
       </c>
       <c r="X70" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="Y70" t="s">
         <v>115</v>
@@ -7903,13 +7909,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
         <v>137</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>138</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
       </c>
       <c r="E71" t="s">
         <v>66</v>
@@ -7964,13 +7970,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="W71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X71" t="s">
         <v>34</v>
       </c>
       <c r="Y71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
@@ -7978,13 +7984,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
         <v>137</v>
       </c>
-      <c r="C72" t="s">
-        <v>138</v>
-      </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
         <v>66</v>
@@ -8039,13 +8045,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="W72" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X72" t="s">
         <v>34</v>
       </c>
       <c r="Y72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
@@ -8053,13 +8059,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
         <v>141</v>
-      </c>
-      <c r="D73" t="s">
-        <v>142</v>
       </c>
       <c r="E73" t="s">
         <v>66</v>
@@ -8114,16 +8120,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="X73" t="s">
         <v>34</v>
       </c>
       <c r="Y73" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
@@ -8131,13 +8137,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
         <v>143</v>
-      </c>
-      <c r="D74" t="s">
-        <v>144</v>
       </c>
       <c r="E74" t="s">
         <v>66</v>
@@ -8192,24 +8198,24 @@
         <v>一般/留学生</v>
       </c>
       <c r="V74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="X74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
         <v>66</v>
@@ -8267,7 +8273,7 @@
         <v>46</v>
       </c>
       <c r="X75" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="Y75" t="s">
         <v>35</v>
@@ -8293,13 +8299,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" t="s">
         <v>146</v>
-      </c>
-      <c r="D76" t="s">
-        <v>147</v>
       </c>
       <c r="E76" t="s">
         <v>66</v>
@@ -8383,13 +8389,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
         <v>66</v>
@@ -8444,7 +8450,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="X77" t="s">
         <v>34</v>
@@ -8455,13 +8461,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
         <v>66</v>
@@ -8519,7 +8525,7 @@
         <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Y78" t="s">
         <v>95</v>
@@ -8545,13 +8551,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
         <v>150</v>
-      </c>
-      <c r="D79" t="s">
-        <v>151</v>
       </c>
       <c r="E79" t="s">
         <v>66</v>
@@ -8614,13 +8620,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
         <v>152</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>153</v>
-      </c>
-      <c r="D80" t="s">
-        <v>154</v>
       </c>
       <c r="E80" t="s">
         <v>66</v>
@@ -8678,7 +8684,7 @@
         <v>46</v>
       </c>
       <c r="X80" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Y80" t="s">
         <v>35</v>
@@ -8704,13 +8710,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s">
         <v>152</v>
       </c>
-      <c r="C81" t="s">
-        <v>153</v>
-      </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" t="s">
         <v>66</v>
@@ -8773,13 +8779,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="s">
         <v>152</v>
       </c>
-      <c r="C82" t="s">
-        <v>153</v>
-      </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
         <v>66</v>
@@ -8842,13 +8848,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" t="s">
         <v>152</v>
       </c>
-      <c r="C83" t="s">
-        <v>153</v>
-      </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
         <v>66</v>
@@ -8911,13 +8917,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
         <v>152</v>
       </c>
-      <c r="C84" t="s">
-        <v>153</v>
-      </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E84" t="s">
         <v>66</v>
@@ -8972,7 +8978,7 @@
         <v>一般生</v>
       </c>
       <c r="W84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="X84" t="s">
         <v>34</v>
@@ -8986,13 +8992,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
         <v>152</v>
       </c>
-      <c r="C85" t="s">
-        <v>153</v>
-      </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
         <v>66</v>
@@ -9055,13 +9061,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" t="s">
         <v>152</v>
       </c>
-      <c r="C86" t="s">
-        <v>153</v>
-      </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
         <v>66</v>
@@ -9124,13 +9130,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" t="s">
         <v>152</v>
       </c>
-      <c r="C87" t="s">
-        <v>153</v>
-      </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
         <v>66</v>
@@ -9193,13 +9199,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" t="s">
         <v>152</v>
       </c>
-      <c r="C88" t="s">
-        <v>153</v>
-      </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E88" t="s">
         <v>66</v>
@@ -9254,7 +9260,7 @@
         <v>一般生</v>
       </c>
       <c r="W88" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X88" t="s">
         <v>34</v>
@@ -9268,13 +9274,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
         <v>152</v>
       </c>
-      <c r="C89" t="s">
-        <v>153</v>
-      </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
         <v>66</v>
@@ -9337,13 +9343,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" t="s">
         <v>152</v>
       </c>
-      <c r="C90" t="s">
-        <v>153</v>
-      </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
         <v>66</v>
@@ -9406,13 +9412,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" t="s">
         <v>152</v>
       </c>
-      <c r="C91" t="s">
-        <v>153</v>
-      </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
         <v>66</v>
@@ -9475,13 +9481,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
         <v>166</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>167</v>
-      </c>
-      <c r="D92" t="s">
-        <v>168</v>
       </c>
       <c r="E92" t="s">
         <v>66</v>
@@ -9544,13 +9550,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
         <v>169</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
       </c>
       <c r="E93" t="s">
         <v>66</v>
@@ -9613,19 +9619,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
         <v>66</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -9674,7 +9680,7 @@
         <v>一般生</v>
       </c>
       <c r="W94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X94" t="s">
         <v>34</v>
@@ -9688,19 +9694,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E95" t="s">
         <v>66</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -9757,19 +9763,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
         <v>66</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -9826,19 +9832,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E97" t="s">
         <v>66</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9895,19 +9901,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
         <v>66</v>
       </c>
       <c r="F98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9956,13 +9962,13 @@
         <v>一般生</v>
       </c>
       <c r="W98" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X98" t="s">
         <v>34</v>
       </c>
       <c r="Y98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -9970,13 +9976,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
         <v>177</v>
-      </c>
-      <c r="D99" t="s">
-        <v>178</v>
       </c>
       <c r="E99" t="s">
         <v>66</v>
@@ -10039,19 +10045,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E100" t="s">
         <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -10100,7 +10106,7 @@
         <v>一般生</v>
       </c>
       <c r="W100" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X100" t="s">
         <v>34</v>
@@ -10114,19 +10120,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
         <v>66</v>
       </c>
       <c r="F101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -10183,19 +10189,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
         <v>66</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10252,19 +10258,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
         <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -10321,19 +10327,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
         <v>66</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -10382,13 +10388,13 @@
         <v>一般生</v>
       </c>
       <c r="W104" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X104" t="s">
         <v>34</v>
       </c>
       <c r="Y104" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -10396,13 +10402,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E105" t="s">
         <v>66</v>
@@ -10460,7 +10466,7 @@
         <v>61</v>
       </c>
       <c r="X105" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA105" t="s">
         <v>66</v>
@@ -10472,7 +10478,7 @@
         <v>36</v>
       </c>
       <c r="AH105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -10480,13 +10486,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
         <v>186</v>
-      </c>
-      <c r="D106" t="s">
-        <v>187</v>
       </c>
       <c r="E106" t="s">
         <v>66</v>
@@ -10549,13 +10555,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
         <v>66</v>
@@ -10610,13 +10616,13 @@
         <v>一般生</v>
       </c>
       <c r="W107" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X107" t="s">
         <v>34</v>
       </c>
       <c r="Y107" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -10624,13 +10630,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" t="s">
         <v>188</v>
-      </c>
-      <c r="D108" t="s">
-        <v>189</v>
       </c>
       <c r="E108" t="s">
         <v>66</v>
@@ -10685,13 +10691,13 @@
         <v>一般生</v>
       </c>
       <c r="W108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X108" t="s">
         <v>34</v>
       </c>
       <c r="Y108" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -10699,13 +10705,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
         <v>66</v>
@@ -10768,13 +10774,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D110" t="s">
         <v>191</v>
-      </c>
-      <c r="D110" t="s">
-        <v>192</v>
       </c>
       <c r="E110" t="s">
         <v>66</v>
@@ -10832,7 +10838,7 @@
         <v>61</v>
       </c>
       <c r="X110" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Y110" t="s">
         <v>42</v>
@@ -10855,13 +10861,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
         <v>66</v>
@@ -10919,7 +10925,7 @@
         <v>61</v>
       </c>
       <c r="X111" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Y111" t="s">
         <v>55</v>
@@ -10942,19 +10948,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" t="s">
         <v>194</v>
-      </c>
-      <c r="D112" t="s">
-        <v>195</v>
       </c>
       <c r="E112" t="s">
         <v>66</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -11003,10 +11009,10 @@
         <v>一般生</v>
       </c>
       <c r="V112" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X112" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AA112" t="s">
         <v>66</v>
@@ -11023,19 +11029,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
         <v>196</v>
-      </c>
-      <c r="D113" t="s">
-        <v>197</v>
       </c>
       <c r="E113" t="s">
         <v>66</v>
       </c>
       <c r="F113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -11084,10 +11090,10 @@
         <v>一般生</v>
       </c>
       <c r="V113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y113" t="s">
         <v>42</v>
@@ -11096,13 +11102,13 @@
         <v>66</v>
       </c>
       <c r="AB113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC113">
         <v>8</v>
       </c>
       <c r="AD113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE113" t="s">
         <v>37</v>
@@ -11113,19 +11119,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E114" t="s">
         <v>66</v>
       </c>
       <c r="F114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -11174,10 +11180,10 @@
         <v>一般生</v>
       </c>
       <c r="V114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X114" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y114" t="s">
         <v>55</v>
@@ -11186,13 +11192,13 @@
         <v>66</v>
       </c>
       <c r="AB114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC114">
         <v>8</v>
       </c>
       <c r="AD114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE114" t="s">
         <v>56</v>
@@ -11203,19 +11209,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E115" t="s">
         <v>66</v>
       </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11264,16 +11270,16 @@
         <v>一般生</v>
       </c>
       <c r="V115" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AA115" t="s">
         <v>66</v>
       </c>
       <c r="AB115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC115">
         <v>8</v>
@@ -11284,19 +11290,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
         <v>66</v>
       </c>
       <c r="F116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -11345,16 +11351,16 @@
         <v>一般生</v>
       </c>
       <c r="V116" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X116" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AA116" t="s">
         <v>66</v>
       </c>
       <c r="AB116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC116">
         <v>8</v>
@@ -11365,19 +11371,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" t="s">
         <v>204</v>
-      </c>
-      <c r="D117" t="s">
-        <v>205</v>
       </c>
       <c r="E117" t="s">
         <v>66</v>
       </c>
       <c r="F117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11429,7 +11435,7 @@
         <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y117" t="s">
         <v>42</v>
@@ -11447,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="AD117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE117" t="s">
         <v>37</v>
@@ -11458,19 +11464,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E118" t="s">
         <v>66</v>
       </c>
       <c r="F118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -11522,7 +11528,7 @@
         <v>46</v>
       </c>
       <c r="X118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y118" t="s">
         <v>55</v>
@@ -11540,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="AD118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE118" t="s">
         <v>56</v>
@@ -11551,13 +11557,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
         <v>207</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>208</v>
-      </c>
-      <c r="D119" t="s">
-        <v>209</v>
       </c>
       <c r="E119" t="s">
         <v>31</v>
@@ -11612,7 +11618,7 @@
         <v>一般生</v>
       </c>
       <c r="W119" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X119" t="s">
         <v>34</v>
@@ -11623,13 +11629,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" t="s">
         <v>207</v>
       </c>
-      <c r="C120" t="s">
-        <v>208</v>
-      </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E120" t="s">
         <v>31</v>
@@ -11684,10 +11690,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="W120" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X120" t="s">
         <v>34</v>
@@ -11701,13 +11707,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" t="s">
         <v>207</v>
       </c>
-      <c r="C121" t="s">
-        <v>208</v>
-      </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E121" t="s">
         <v>31</v>
@@ -11762,10 +11768,10 @@
         <v>留学生</v>
       </c>
       <c r="V121" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="W121" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X121" t="s">
         <v>34</v>
@@ -11776,13 +11782,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" t="s">
         <v>212</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>213</v>
-      </c>
-      <c r="D122" t="s">
-        <v>214</v>
       </c>
       <c r="E122" t="s">
         <v>31</v>
@@ -11837,7 +11843,7 @@
         <v>一般生</v>
       </c>
       <c r="W122" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X122" t="s">
         <v>34</v>
@@ -11848,13 +11854,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" t="s">
         <v>212</v>
       </c>
-      <c r="C123" t="s">
-        <v>213</v>
-      </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E123" t="s">
         <v>31</v>
@@ -11909,7 +11915,7 @@
         <v>一般生</v>
       </c>
       <c r="W123" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X123" t="s">
         <v>34</v>
@@ -11920,13 +11926,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" t="s">
         <v>212</v>
       </c>
-      <c r="C124" t="s">
-        <v>213</v>
-      </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E124" t="s">
         <v>31</v>
@@ -11981,7 +11987,7 @@
         <v>一般生</v>
       </c>
       <c r="W124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X124" t="s">
         <v>34</v>
@@ -11992,13 +11998,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" t="s">
         <v>212</v>
       </c>
-      <c r="C125" t="s">
-        <v>213</v>
-      </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E125" t="s">
         <v>31</v>
@@ -12053,7 +12059,7 @@
         <v>一般生</v>
       </c>
       <c r="W125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X125" t="s">
         <v>34</v>
@@ -12064,13 +12070,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" t="s">
         <v>218</v>
-      </c>
-      <c r="D126" t="s">
-        <v>219</v>
       </c>
       <c r="E126" t="s">
         <v>31</v>
@@ -12125,7 +12131,7 @@
         <v>一般生</v>
       </c>
       <c r="W126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X126" t="s">
         <v>34</v>
@@ -12136,13 +12142,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E127" t="s">
         <v>31</v>
@@ -12197,7 +12203,7 @@
         <v>一般生</v>
       </c>
       <c r="W127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X127" t="s">
         <v>34</v>
@@ -12208,13 +12214,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E128" t="s">
         <v>31</v>
@@ -12269,7 +12275,7 @@
         <v>一般生</v>
       </c>
       <c r="V128" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="X128" t="s">
         <v>34</v>
@@ -12287,7 +12293,7 @@
         <v>10</v>
       </c>
       <c r="AD128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE128" t="s">
         <v>67</v>
@@ -12298,13 +12304,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E129" t="s">
         <v>31</v>
@@ -12359,10 +12365,10 @@
         <v>一般生</v>
       </c>
       <c r="V129" t="s">
+        <v>231</v>
+      </c>
+      <c r="X129" t="s">
         <v>232</v>
-      </c>
-      <c r="X129" t="s">
-        <v>233</v>
       </c>
       <c r="Y129" t="s">
         <v>65</v>
@@ -12377,7 +12383,7 @@
         <v>10</v>
       </c>
       <c r="AD129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE129" t="s">
         <v>67</v>
@@ -12388,13 +12394,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E130" t="s">
         <v>31</v>
@@ -12449,7 +12455,7 @@
         <v>一般生</v>
       </c>
       <c r="V130" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="X130" t="s">
         <v>34</v>
@@ -12467,7 +12473,7 @@
         <v>10</v>
       </c>
       <c r="AD130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE130" t="s">
         <v>67</v>
@@ -12478,13 +12484,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E131" t="s">
         <v>31</v>
@@ -12539,7 +12545,7 @@
         <v>一般生</v>
       </c>
       <c r="V131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X131" t="s">
         <v>34</v>
@@ -12557,7 +12563,7 @@
         <v>10</v>
       </c>
       <c r="AD131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE131" t="s">
         <v>67</v>
@@ -12568,13 +12574,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E132" t="s">
         <v>31</v>
@@ -12629,7 +12635,7 @@
         <v>一般生</v>
       </c>
       <c r="V132" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="X132" t="s">
         <v>34</v>
@@ -12650,7 +12656,7 @@
         <v>5</v>
       </c>
       <c r="AD132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE132" t="s">
         <v>67</v>
@@ -12661,13 +12667,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E133" t="s">
         <v>31</v>
@@ -12722,7 +12728,7 @@
         <v>一般生</v>
       </c>
       <c r="V133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X133" t="s">
         <v>34</v>
@@ -12740,7 +12746,7 @@
         <v>5</v>
       </c>
       <c r="AD133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE133" t="s">
         <v>67</v>
@@ -12748,7 +12754,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V136" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="W136" s="4">
         <f t="shared" ref="W136:W148" si="12">COUNTIF($W$2:$W$135,V136)</f>
@@ -12757,7 +12763,7 @@
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V137" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W137" s="4">
         <f t="shared" si="12"/>
@@ -12766,7 +12772,7 @@
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V138" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="W138" s="4">
         <f t="shared" si="12"/>
@@ -12775,7 +12781,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V139" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="W139" s="4">
         <f t="shared" si="12"/>
@@ -12784,7 +12790,7 @@
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V140" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="W140" s="4">
         <f t="shared" si="12"/>
@@ -12793,7 +12799,7 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V141" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="W141" s="4">
         <f t="shared" si="12"/>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V142" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="W142" s="4">
         <f t="shared" si="12"/>
@@ -12811,7 +12817,7 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V143" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="W143" s="4">
         <f t="shared" si="12"/>
@@ -12820,7 +12826,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V144" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W144" s="4">
         <f t="shared" si="12"/>
@@ -12829,7 +12835,7 @@
     </row>
     <row r="145" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V145" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="W145" s="4">
         <f t="shared" si="12"/>
@@ -12838,7 +12844,7 @@
     </row>
     <row r="146" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W146" s="4">
         <f t="shared" si="12"/>
@@ -12847,7 +12853,7 @@
     </row>
     <row r="147" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V147" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="W147" s="4">
         <f t="shared" si="12"/>
@@ -12865,15 +12871,12 @@
   <autoFilter ref="A1:AI133">
     <filterColumn colId="21">
       <filters>
-        <filter val="フレミング先生（植田）"/>
-        <filter val="岡本先生（植田）"/>
-        <filter val="宮本先生（植田）"/>
         <filter val="植田"/>
-        <filter val="内藤先生（植田）"/>
       </filters>
     </filterColumn>
     <filterColumn colId="23">
       <filters>
+        <filter val="チェック中"/>
         <filter val="ファイル作成"/>
         <filter val="着手"/>
         <filter val="未着手"/>

--- a/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
+++ b/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="293">
   <si>
     <t>番号</t>
   </si>
@@ -1159,6 +1159,13 @@
       <t>ブン</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -2125,10 +2132,10 @@
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V73" sqref="V73"/>
+      <selection pane="bottomRight" activeCell="D112" sqref="D112:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4595,7 +4602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4847,7 +4854,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6824,7 +6831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6980,7 +6987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7058,7 +7065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7208,7 +7215,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8132,7 +8139,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8294,7 +8301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8363,7 +8370,7 @@
         <v>46</v>
       </c>
       <c r="X76" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="Y76" t="s">
         <v>35</v>
@@ -8384,7 +8391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8615,7 +8622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12869,6 +12876,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AI133">
+    <filterColumn colId="18">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="21">
       <filters>
         <filter val="植田"/>
@@ -12876,7 +12886,6 @@
     </filterColumn>
     <filterColumn colId="23">
       <filters>
-        <filter val="チェック中"/>
         <filter val="ファイル作成"/>
         <filter val="着手"/>
         <filter val="未着手"/>

--- a/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
+++ b/コピーシラバス・年間指導計画・授業資料作成担当者‗植田変更.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="294">
   <si>
     <t>番号</t>
   </si>
@@ -1174,6 +1174,13 @@
     <t>済</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>選択させない</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -2132,10 +2139,10 @@
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D112" sqref="D112:D118"/>
+      <selection pane="bottomRight" activeCell="X112" sqref="X112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4602,7 +4609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4854,7 +4861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6831,7 +6838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6987,7 +6994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7137,7 +7144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7215,7 +7222,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8061,7 +8068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8139,7 +8146,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11280,7 +11287,7 @@
         <v>277</v>
       </c>
       <c r="X115" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AA115" t="s">
         <v>66</v>
@@ -11361,7 +11368,7 @@
         <v>277</v>
       </c>
       <c r="X116" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AA116" t="s">
         <v>66</v>
@@ -11373,7 +11380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Y117" t="s">
         <v>42</v>
@@ -11466,7 +11473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11535,7 +11542,7 @@
         <v>46</v>
       </c>
       <c r="X118" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Y118" t="s">
         <v>55</v>
@@ -12876,9 +12883,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AI133">
-    <filterColumn colId="18">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="21">
       <filters>
         <filter val="植田"/>
